--- a/文件與繪圖/甘特圖.xlsx
+++ b/文件與繪圖/甘特圖.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18356528-5C37-4C6D-A083-34C71AD27FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC65A23-42E7-42A4-9008-DC4523C49775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31544585-0BFF-404B-B3F3-A38214750D92}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="43">
   <si>
     <t>廚餘閘門測試</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,30 @@
     <t>討論系統目標客群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>媒合系統配對功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片草稿完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT內容完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餵食器飼料輪盤修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍影片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT英文版完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +265,7 @@
     <numFmt numFmtId="178" formatCode="m/d"/>
     <numFmt numFmtId="179" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,8 +302,17 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,14 +325,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -348,13 +375,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,16 +498,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -397,13 +522,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -421,7 +540,82 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,35 +626,38 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="3" tint="0.499984740745262"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -794,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB34B9EA-7021-4DCF-8B34-6E29ECC72385}">
-  <dimension ref="A1:U154"/>
+  <dimension ref="A1:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -805,84 +1002,108 @@
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="26.75" customWidth="1"/>
-    <col min="7" max="21" width="5.375" customWidth="1"/>
+    <col min="7" max="29" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="9">
+      <c r="G1" s="7">
         <v>45734</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="7">
         <v>45739</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="7">
         <v>45746</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="7">
         <v>45753</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="7">
         <v>45760</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="7">
         <v>45767</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="7">
         <v>45774</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="7">
         <v>45781</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="7">
         <v>45788</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="7">
         <v>45795</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="7">
         <v>45802</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="7">
         <v>45823</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="7">
         <v>45830</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="7">
         <v>45837</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1" s="6">
         <v>45844</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="V1" s="6">
+        <v>45851</v>
+      </c>
+      <c r="W1" s="6">
+        <v>45858</v>
+      </c>
+      <c r="X1" s="6">
+        <v>45865</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>45872</v>
+      </c>
+      <c r="Z1" s="10">
+        <v>45879</v>
+      </c>
+      <c r="AA1" s="10">
+        <v>45886</v>
+      </c>
+      <c r="AB1" s="10">
+        <v>45893</v>
+      </c>
+      <c r="AC1" s="10">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="17">
         <v>45734</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="15">
         <v>14</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="17">
         <v>45748</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3"/>
@@ -900,22 +1121,30 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <v>45734</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <v>14</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <v>45748</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="3"/>
@@ -933,27 +1162,35 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <v>45748</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>14</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>45762</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -966,27 +1203,35 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>45748</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>28</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <v>45776</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -999,27 +1244,35 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>45748</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>28</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>45776</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1032,27 +1285,35 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>45748</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>28</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>45776</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1065,711 +1326,1127 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>45748</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>28</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>45776</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>45769</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>14</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>45783</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="17">
         <v>45769</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>14</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>45783</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>45769</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="8">
         <v>14</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>45783</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="17">
         <v>45769</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <v>21</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>45790</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <v>45769</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>28</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <v>45798</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="17">
         <v>45769</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="8">
         <v>14</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>45783</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="17">
         <v>45798</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <v>5</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>45803</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="17">
         <v>45823</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="8">
         <v>15</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>45838</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="17">
         <v>45823</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="8">
         <v>15</v>
       </c>
-      <c r="D17" s="21">
-        <v>45838</v>
+      <c r="D17" s="17">
+        <v>45852</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>45823</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="8">
         <v>15</v>
       </c>
-      <c r="D18" s="21">
-        <v>45838</v>
+      <c r="D18" s="17">
+        <v>45852</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="17">
         <v>45823</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="8">
         <v>15</v>
       </c>
-      <c r="D19" s="21">
-        <v>45838</v>
+      <c r="D19" s="17">
+        <v>45852</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="17">
         <v>45823</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="8">
         <v>15</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>45838</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="17">
         <v>45826</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="8">
         <v>5</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="17">
         <v>45831</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="17">
         <v>45828</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="8">
         <v>10</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>45838</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="14">
         <v>45828</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="8">
         <v>10</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="14">
         <v>45838</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="21">
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="14">
         <v>45828</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="8">
         <v>10</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="14">
         <v>45838</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="14">
         <v>45829</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="8">
         <v>9</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="14">
         <v>45838</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="21">
-        <v>45833</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="14">
+        <v>45839</v>
+      </c>
+      <c r="C26" s="8">
         <v>5</v>
       </c>
-      <c r="D26" s="21">
-        <v>45838</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="D26" s="14">
+        <v>45869</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="14">
         <v>45833</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="8">
         <v>5</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="14">
         <v>45838</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="14">
         <v>45839</v>
       </c>
-      <c r="C28" s="3">
-        <v>5</v>
-      </c>
-      <c r="D28" s="21">
-        <v>45844</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="C28" s="8">
+        <v>30</v>
+      </c>
+      <c r="D28" s="14">
+        <v>45869</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="3"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="14">
+        <v>45839</v>
+      </c>
+      <c r="C29" s="8">
+        <v>13</v>
+      </c>
+      <c r="D29" s="14">
+        <v>45852</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="14">
+        <v>45839</v>
+      </c>
+      <c r="C30" s="8">
+        <v>30</v>
+      </c>
+      <c r="D30" s="14">
+        <v>45869</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="14">
+        <v>45839</v>
+      </c>
+      <c r="C31" s="8">
+        <v>30</v>
+      </c>
+      <c r="D31" s="14">
+        <v>45869</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="14">
+        <v>45839</v>
+      </c>
+      <c r="C32" s="8">
+        <v>30</v>
+      </c>
+      <c r="D32" s="14">
+        <v>45869</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="14">
+        <v>45870</v>
+      </c>
+      <c r="C33" s="8">
+        <v>30</v>
+      </c>
+      <c r="D33" s="14">
+        <v>45900</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="14">
+        <v>45870</v>
+      </c>
+      <c r="C34" s="8">
+        <v>30</v>
+      </c>
+      <c r="D34" s="14">
+        <v>45900</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
+      <c r="A150" s="16"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
+      <c r="A151" s="16"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
+      <c r="A152" s="16"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
+      <c r="A153" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:U28">
+  <conditionalFormatting sqref="G2:AC34">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>(G$1&gt;=$B2)*(G$1&lt;=$D2)</formula>
     </cfRule>
@@ -1780,10 +2457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DD7DC6-962C-4D4C-BA1C-E12099415BCC}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1791,522 +2468,692 @@
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="4.375" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="21" width="5.375" customWidth="1"/>
+    <col min="7" max="29" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="9">
+      <c r="G1" s="7">
         <v>45734</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="7">
         <v>45739</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="7">
         <v>45746</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="7">
         <v>45753</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="7">
         <v>45760</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="7">
         <v>45767</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="7">
         <v>45774</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="7">
         <v>45781</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="7">
         <v>45788</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="7">
         <v>45795</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="6">
         <v>45802</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="7">
         <v>45823</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="7">
         <v>45830</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="7">
         <v>45837</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1" s="6">
         <v>45844</v>
       </c>
-      <c r="V1" s="7"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="V1" s="6">
+        <v>45851</v>
+      </c>
+      <c r="W1" s="10">
+        <v>45858</v>
+      </c>
+      <c r="X1" s="10">
+        <v>45865</v>
+      </c>
+      <c r="Y1" s="7">
+        <v>45872</v>
+      </c>
+      <c r="Z1" s="29">
+        <v>45879</v>
+      </c>
+      <c r="AA1" s="29">
+        <v>45886</v>
+      </c>
+      <c r="AB1" s="29">
+        <v>45893</v>
+      </c>
+      <c r="AC1" s="29">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>45734</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="15">
         <v>14</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <v>45748</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <v>45748</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>28</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>45776</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>45769</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>14</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>45783</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="14">
         <v>45769</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>14</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>45783</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>45769</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>14</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>45783</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="14">
         <v>45769</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>21</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <v>45790</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="14">
         <v>45769</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>28</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <v>45798</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="14">
         <v>45798</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>45803</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="14">
         <v>45828</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>45831</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="14">
         <v>45828</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="14">
         <v>45838</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="14">
         <v>45828</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>10</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <v>45838</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="18">
-        <v>45823</v>
-      </c>
-      <c r="C13" s="10">
-        <v>15</v>
-      </c>
-      <c r="D13" s="18">
+      <c r="B13" s="14">
+        <v>45839</v>
+      </c>
+      <c r="C13" s="8">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14">
+        <v>45869</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14">
+        <v>45829</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14">
         <v>45838</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="18">
-        <v>45829</v>
-      </c>
-      <c r="C14" s="10">
-        <v>9</v>
-      </c>
-      <c r="D14" s="18">
-        <v>45838</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="14">
         <v>45839</v>
       </c>
-      <c r="C15" s="10">
-        <v>5</v>
-      </c>
-      <c r="D15" s="18">
-        <v>45844</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="C15" s="8">
+        <v>30</v>
+      </c>
+      <c r="D15" s="14">
+        <v>45869</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="14">
+        <v>45870</v>
+      </c>
+      <c r="C16" s="8">
+        <v>30</v>
+      </c>
+      <c r="D16" s="14">
+        <v>45900</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -2330,7 +3177,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:V15">
+  <conditionalFormatting sqref="G2:AC16">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>(G$1&gt;=$B2)*(G$1&lt;=$D2)</formula>
     </cfRule>
@@ -2341,365 +3188,517 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656B447F-88F5-4E13-8040-CF4E38C4AC9E}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="U1" sqref="U1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="17" width="5.375" customWidth="1"/>
+    <col min="7" max="26" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="9">
+      <c r="G1" s="7">
         <v>45734</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="7">
         <v>45739</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="7">
         <v>45746</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="7">
         <v>45753</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="7">
         <v>45760</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="7">
         <v>45767</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="7">
         <v>45774</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="7">
         <v>45781</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="7">
         <v>45826</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="7">
         <v>45830</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="7">
         <v>45837</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="R1" s="30">
+        <v>45844</v>
+      </c>
+      <c r="S1" s="30">
+        <v>45851</v>
+      </c>
+      <c r="T1" s="31">
+        <v>45858</v>
+      </c>
+      <c r="U1" s="31">
+        <v>45865</v>
+      </c>
+      <c r="V1" s="32">
+        <v>45872</v>
+      </c>
+      <c r="W1" s="33">
+        <v>45879</v>
+      </c>
+      <c r="X1" s="33">
+        <v>45886</v>
+      </c>
+      <c r="Y1" s="33">
+        <v>45893</v>
+      </c>
+      <c r="Z1" s="33">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>45734</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>14</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <v>45748</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <v>45748</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>14</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>45762</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>45748</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>28</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>45776</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="14">
         <v>45748</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>28</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>45776</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>45769</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>14</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>45783</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="14">
         <v>45769</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>14</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <v>45783</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="14">
         <v>45826</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <v>45831</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="14">
         <v>45828</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>10</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>45838</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="14">
         <v>45828</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>10</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>45838</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="18">
-        <v>45833</v>
-      </c>
-      <c r="C11" s="10">
-        <v>5</v>
-      </c>
-      <c r="D11" s="18">
-        <v>45838</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="B11" s="14">
+        <v>45839</v>
+      </c>
+      <c r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14">
+        <v>45869</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="22">
+        <v>45870</v>
+      </c>
+      <c r="C12" s="8">
+        <v>30</v>
+      </c>
+      <c r="D12" s="14">
+        <v>45900</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
     </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:Q11">
+  <conditionalFormatting sqref="G2:Z12">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>(G$1&gt;=$B2)*(G$1&lt;=$D2)</formula>
     </cfRule>
@@ -2710,376 +3709,530 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CCC980-773B-4B1F-BDD8-711AEE5CAC99}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="15" width="5.375" customWidth="1"/>
+    <col min="7" max="21" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="13">
+      <c r="G1" s="11">
         <v>45748</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="11">
         <v>45753</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="11">
         <v>45760</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="11">
         <v>45767</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="11">
         <v>45774</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="11">
         <v>45781</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="11">
         <v>45826</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="11">
         <v>45830</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="11">
         <v>45837</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="P1" s="29">
+        <v>45865</v>
+      </c>
+      <c r="Q1" s="40">
+        <v>45872</v>
+      </c>
+      <c r="R1" s="29">
+        <v>45879</v>
+      </c>
+      <c r="S1" s="29">
+        <v>45886</v>
+      </c>
+      <c r="T1" s="29">
+        <v>45893</v>
+      </c>
+      <c r="U1" s="29">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>45748</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>28</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <v>45776</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <v>45748</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>28</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>45776</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>45769</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>14</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>45783</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="14">
         <v>45769</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>14</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>45783</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>45769</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>14</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>45783</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="14">
         <v>45769</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>14</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <v>45783</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="14">
         <v>45769</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>14</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <v>45783</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="14">
         <v>45826</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>45831</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="14">
         <v>45828</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>10</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>45838</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="14">
         <v>45828</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="14">
         <v>45838</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="14">
+        <v>45839</v>
+      </c>
+      <c r="C12" s="8">
+        <v>30</v>
+      </c>
+      <c r="D12" s="14">
+        <v>45869</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="14">
         <v>45833</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C13" s="8">
         <v>5</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D13" s="14">
         <v>45838</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="F13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="18">
-        <v>45833</v>
-      </c>
-      <c r="C13" s="10">
-        <v>5</v>
-      </c>
-      <c r="D13" s="18">
-        <v>45838</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14">
+        <v>45839</v>
+      </c>
+      <c r="C14" s="8">
+        <v>13</v>
+      </c>
+      <c r="D14" s="14">
+        <v>45852</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14">
+        <v>45870</v>
+      </c>
+      <c r="C15" s="8">
+        <v>30</v>
+      </c>
+      <c r="D15" s="14">
+        <v>45900</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:O13">
+  <conditionalFormatting sqref="G2:U15">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>(G$1&gt;=$B2)*(G$1&lt;=$D2)</formula>
     </cfRule>
@@ -3090,251 +4243,421 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D179700E-1D8F-4381-B83B-87B8AF779FEB}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="12" width="5.375" customWidth="1"/>
+    <col min="7" max="18" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="17">
+      <c r="G1" s="13">
         <v>45769</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="13">
         <v>45774</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="13">
         <v>45781</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="13">
         <v>45823</v>
       </c>
-      <c r="K1" s="17">
+      <c r="K1" s="13">
         <v>45830</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="13">
         <v>45837</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="M1" s="29">
+        <v>45865</v>
+      </c>
+      <c r="N1" s="40">
+        <v>45872</v>
+      </c>
+      <c r="O1" s="29">
+        <v>45879</v>
+      </c>
+      <c r="P1" s="29">
+        <v>45886</v>
+      </c>
+      <c r="Q1" s="29">
+        <v>45893</v>
+      </c>
+      <c r="R1" s="29">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>45769</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>14</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="14">
         <v>45783</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="14">
         <v>45826</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>5</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>45831</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>45828</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>10</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>45838</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="14">
         <v>45828</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>10</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="14">
         <v>45838</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>45823</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>15</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>45838</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="14">
         <v>45823</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>15</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="14">
         <v>45838</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="14">
         <v>45823</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>15</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <v>45838</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="14">
         <v>45823</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>15</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <v>45838</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="14">
+        <v>45839</v>
+      </c>
+      <c r="C10" s="8">
+        <v>30</v>
+      </c>
+      <c r="D10" s="14">
+        <v>45869</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="14">
+        <v>45839</v>
+      </c>
+      <c r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="14">
+        <v>45869</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="14">
+        <v>45870</v>
+      </c>
+      <c r="C12" s="8">
+        <v>30</v>
+      </c>
+      <c r="D12" s="14">
+        <v>45900</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="14">
+        <v>45870</v>
+      </c>
+      <c r="C13" s="8">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14">
+        <v>45900</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2 J2 G3:L3 G4:K5 G6:J9 G10:L11">
+  <conditionalFormatting sqref="G2:R13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>(G$1&gt;=$B2)*(G$1&lt;=$D2)</formula>
     </cfRule>
